--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1622612.849016484</v>
+        <v>1620360.769305277</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.8437204680931</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>359.5282000502272</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.908902023990272</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.9899243971805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>111.6770057037272</v>
       </c>
       <c r="W5" t="n">
-        <v>274.7944255145766</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>40.34116522361499</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>225.48552678711</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>85.26459287122319</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>112.0789181391353</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>162.5701994818067</v>
+        <v>63.13355668550191</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.9742741983373</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21.90286287505374</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>120.1447214650588</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892427987</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>219.245038753228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788174979</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419834084</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101195</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161933784</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.14614278817813</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238261</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189243</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>35.88641949135364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503986</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.273285499503</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.310768559091</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.310768559091</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539436</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2741.012457539436</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2350.873125563624</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>372.8549345700859</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>782.492950298343</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>554.5033994003256</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>554.5033994003256</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,13 +4580,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2643.001872527934</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2290.233217257819</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>1916.76745899674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1886.545896347467</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1597.443029473111</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V7" t="n">
-        <v>1342.758541267224</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1053.341371230263</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>825.3518203322459</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,19 +4799,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3239.479970224096</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3033.502222608318</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3033.502222608318</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2702.439335264748</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2349.670679994633</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,7 +4899,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>844.5803025616252</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C10" t="n">
-        <v>675.6441196337183</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D10" t="n">
-        <v>525.5274802213826</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="E10" t="n">
-        <v>377.6143866389895</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="F10" t="n">
-        <v>230.7244391410791</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.46409084602</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.46409084602</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640133</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.372881705155</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>844.5803025616252</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597765</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>448.184659530997</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>943.5102657467554</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F13" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G13" t="n">
-        <v>198.027470314254</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5315,13 +5315,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797186</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5598,16 +5598,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>883.8931825606599</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>733.7765431483241</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>585.863449565931</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>438.9735020680206</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998313</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876713</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597644</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474287</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474287</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359459</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614412</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317911</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6716,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026076</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820189</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783229</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038357</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823187</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>118.3918499711701</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631857309</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462286</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>45.37941682721006</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462254</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909865137</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>32.89260457059996</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194671</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822833</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067379</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194355</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844822923</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>250.2980548978905</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844822922</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242652</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242653</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242653</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900670.0829242654</v>
+        <v>900670.0829242655</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900670.0829242655</v>
+        <v>900670.0829242654</v>
       </c>
     </row>
     <row r="13">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="F2" t="n">
-        <v>524645.2897985036</v>
-      </c>
       <c r="G2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
         <v>524645.2897985039</v>
@@ -26341,7 +26341,7 @@
         <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
@@ -26353,7 +26353,7 @@
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.842883194</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
@@ -26445,7 +26445,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995795.3787603956</v>
+        <v>-995795.3787603957</v>
       </c>
       <c r="C6" t="n">
+        <v>332949.3669671972</v>
+      </c>
+      <c r="D6" t="n">
         <v>332949.3669671969</v>
       </c>
-      <c r="D6" t="n">
-        <v>332949.3669671968</v>
-      </c>
       <c r="E6" t="n">
-        <v>84503.49005539871</v>
+        <v>84468.75212996364</v>
       </c>
       <c r="F6" t="n">
-        <v>409915.9518627538</v>
+        <v>409881.2139373181</v>
       </c>
       <c r="G6" t="n">
-        <v>409915.951862754</v>
+        <v>409881.2139373184</v>
       </c>
       <c r="H6" t="n">
-        <v>409915.9518627541</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="I6" t="n">
-        <v>409915.9518627541</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="J6" t="n">
-        <v>192384.7494654765</v>
+        <v>192350.0115400405</v>
       </c>
       <c r="K6" t="n">
-        <v>409915.951862754</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="L6" t="n">
-        <v>409915.9518627541</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="M6" t="n">
-        <v>324860.9239272421</v>
+        <v>324826.1860018066</v>
       </c>
       <c r="N6" t="n">
-        <v>409915.951862754</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="O6" t="n">
-        <v>409915.951862754</v>
+        <v>409881.2139373183</v>
       </c>
       <c r="P6" t="n">
-        <v>409915.9518627541</v>
+        <v>409881.2139373183</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>226.4291713029144</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.40217002203457</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>157.3379190746376</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.5947289549143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>216.0752527664077</v>
       </c>
       <c r="W5" t="n">
-        <v>74.44654320283644</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>179.2077840525542</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>60.72631141850283</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>23.92316891695266</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>3.455608777221499</v>
+        <v>102.8922515735263</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.7021085929673</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,19 +32318,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32719,7 +32719,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460027</v>
@@ -32792,7 +32792,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008912</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188757</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.8644819263006</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36440,7 +36440,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255787</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>368.5488557045454</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
